--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619198.7657017522</v>
+        <v>609946.7114114127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621782</v>
+        <v>6784319.069857045</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951105</v>
+        <v>5095204.268816689</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7573593.946853794</v>
+        <v>7984191.178853408</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>88.16169605007896</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.53630794622342</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>118.6750583265957</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -902,13 +904,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>405.8342542570223</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6.338580986754753</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>272.4106265418866</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>271.0640515220189</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>55.46808386258407</v>
+        <v>101.5571554787041</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.68688746169101</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>32.49641236331061</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>362.8835113638343</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>28.05873525312112</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1543,10 +1545,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>294.9845064095327</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.27423873582465</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1853,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>67.93124611527509</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.4866148791031</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2092,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2144,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>68.10104966859276</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2302,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>32.496412363311</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>35.16963817296666</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>35.10362800310591</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>253.733437780414</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>354.2586798869617</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.21879981048506</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2849,13 +2851,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>300.4920170745502</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.595211067239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3080,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.68688746169129</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3278,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>359.0841816924169</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3317,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3430,13 +3432,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>33.74095660611388</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3515,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>182.1412945836354</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>208.933067249405</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.0002589579186</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>271.0770354214525</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>308.4960544879101</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3791,13 +3793,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>140.548818152191</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0.1210561135349326</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3910,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>32.68132826927187</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.2029779656798</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>71.94970840543674</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>125.9259454362166</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>105.732318277738</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>68.2250873043393</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596236</v>
+        <v>14.07197276257019</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>103.4200745003546</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>156.9911033972291</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3649413530933</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>67.50669282849422</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>77.33716558595378</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>45.23830508968854</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1672.218435961812</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C2" t="n">
-        <v>1262.093845275082</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="D2" t="n">
-        <v>1262.093845275082</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="E2" t="n">
-        <v>847.7536297919787</v>
+        <v>862.7562132805995</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>441.725801234287</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2022.055990625331</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2022.055990625331</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2022.055990625331</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1672.218435961812</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1672.218435961812</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1672.218435961812</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.218435961812</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.3847151048558</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>920.3847151048558</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
         <v>800.5109188153651</v>
@@ -4528,10 +4530,10 @@
         <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1332.820120110135</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1108.0844214989</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1687.317608428192</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C5" t="n">
-        <v>1277.193017741462</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D5" t="n">
-        <v>872.7290878345229</v>
+        <v>462.5079081700334</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>48.16769268693008</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>48.16769268693008</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4571,22 +4573,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>176.0078249962696</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M5" t="n">
-        <v>176.0078249962696</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4647,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811262</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
         <v>41.76508562960205</v>
@@ -4756,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>784.7885077502552</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>784.7885077502552</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>784.7885077502552</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7885077502552</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>927.552149321046</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="C8" t="n">
-        <v>927.552149321046</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="D8" t="n">
-        <v>927.552149321046</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="E8" t="n">
-        <v>927.552149321046</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="F8" t="n">
-        <v>506.5217372747336</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="G8" t="n">
-        <v>97.79345316756576</v>
+        <v>144.3480709616264</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4802,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4841,13 +4843,13 @@
         <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.416726816583</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X8" t="n">
-        <v>1337.773328985535</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1337.773328985535</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4886,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.3847151048558</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C10" t="n">
-        <v>749.2913426665723</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D10" t="n">
-        <v>589.7966979894823</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E10" t="n">
-        <v>428.8858828578017</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F10" t="n">
-        <v>264.254756968393</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G10" t="n">
-        <v>97.00436589393641</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1332.820120110135</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="Y10" t="n">
-        <v>1108.0844214989</v>
+        <v>191.3725408241454</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>451.8896763163319</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960205</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5066,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1219.375350745852</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>852.8263493682418</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>451.8896763163319</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5120,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
         <v>1192.007362767163</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.9929469847658</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>562.8995745464823</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>534.5574177251478</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T13" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U13" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V13" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W13" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X13" t="n">
-        <v>1146.428351990045</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y13" t="n">
-        <v>921.6926533788102</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C14" t="n">
-        <v>1473.706230480572</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>1473.706230480572</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>1059.366014997469</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5282,19 +5284,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>537.7254774811266</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>1054.568412147452</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5360,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.414276561226</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147451</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U16" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V16" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W16" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.093116471976</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y16" t="n">
-        <v>1203.093116471976</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>929.1866513381045</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>929.1866513381045</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>524.722721431165</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3825059480617</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>110.3825059480617</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>110.3825059480617</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>812.7934917636817</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>1329.636426430007</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1329.636426430007</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1726.536628995245</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>1726.536628995245</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>1730.766722221062</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>1730.766722221062</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>1730.766722221062</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>1730.766722221062</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>1330.123324390014</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>929.1866513381045</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>81.91922121582792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>537.7254774811266</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1054.568412147452</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1571.411346813777</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>970.6584502828955</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>799.565077844612</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>640.070433167522</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>1158.35815667694</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
         <v>490.5039577458317</v>
@@ -5792,10 +5794,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.027001052593</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>657.2517797545896</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="C22" t="n">
-        <v>486.1584073163061</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D22" t="n">
-        <v>326.6637626392161</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E22" t="n">
-        <v>326.6637626392161</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F22" t="n">
-        <v>162.0326367498074</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X22" t="n">
-        <v>1069.687184759869</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.951486148634</v>
+        <v>242.8511528851661</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6178,19 +6180,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.904481800084</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.904481800084</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.904481800084</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X25" t="n">
-        <v>837.5606196597678</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y25" t="n">
-        <v>612.8249210485325</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2494.579294402201</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C26" t="n">
-        <v>2084.454703715471</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D26" t="n">
-        <v>1679.990773808531</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E26" t="n">
-        <v>1265.650558325428</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F26" t="n">
-        <v>844.6201462791155</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>435.8918621719477</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6224,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4090.140845814479</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3706.380544949648</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X26" t="n">
-        <v>3305.7371471186</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y26" t="n">
-        <v>2904.80047406669</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W28" t="n">
-        <v>547.3402982826956</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X28" t="n">
-        <v>308.996436142379</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C29" t="n">
         <v>2139.066799289355</v>
@@ -6464,7 +6466,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6497,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>524.2254458227151</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>524.2254458227151</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>524.2254458227151</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N30" t="n">
-        <v>524.2254458227151</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F31" t="n">
         <v>3132.785987910289</v>
@@ -6649,22 +6651,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>4139.837998053967</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V31" t="n">
-        <v>3865.952252993488</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W31" t="n">
-        <v>3586.882588502363</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X31" t="n">
-        <v>3348.538726362046</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
         <v>2139.066799289355</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>917.3518287999427</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6883,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1567.403314047138</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1567.403314047138</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1567.403314047138</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1567.403314047138</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1567.403314047138</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>1329.059451906822</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1104.323753295587</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -6935,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674168</v>
@@ -6965,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.231502096085</v>
+        <v>3612.981460220206</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>3441.888087781923</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4542.830391856929</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>4263.760727365803</v>
       </c>
       <c r="X37" t="n">
-        <v>1478.666907101365</v>
+        <v>4025.416865225486</v>
       </c>
       <c r="Y37" t="n">
-        <v>1253.93120849013</v>
+        <v>3800.681166614251</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2140.463105868917</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1730.338515182187</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1325.874585275247</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4342.922703685204</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4085.862211944715</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V38" t="n">
-        <v>3736.024657281195</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W38" t="n">
-        <v>3352.264356416364</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X38" t="n">
-        <v>2951.620958585316</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y38" t="n">
-        <v>2550.684285533406</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1109.278667993779</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>835.3929229333004</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>837.543623783007</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>837.543623783007</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G41" t="n">
         <v>490.5039577458317</v>
@@ -7409,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7439,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1953.732927139018</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1153.452678737507</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>3458.327928931379</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U43" t="n">
-        <v>1153.452678737507</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V43" t="n">
-        <v>1153.452678737507</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W43" t="n">
-        <v>1153.452678737507</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X43" t="n">
-        <v>1153.452678737507</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y43" t="n">
-        <v>1153.452678737507</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>893.629403119734</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C44" t="n">
-        <v>483.5048124330041</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D44" t="n">
-        <v>450.4933697367699</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E44" t="n">
-        <v>450.4933697367699</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>890.1332794620738</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>481.7597139735716</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>174.4839786547031</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>101.8075055178983</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>967.8832819716199</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>1735.337992756537</v>
       </c>
       <c r="M44" t="n">
-        <v>1075.450954962253</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N44" t="n">
-        <v>1530.854701124212</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4963.177351211883</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4742.523647911953</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.493980615271</v>
+        <v>3751.893678132607</v>
       </c>
       <c r="X44" t="n">
-        <v>1303.850582784223</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1303.850582784223</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0810953693212</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>638.086024118267</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1888663376594</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6960503299874</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>291.736170512492</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936201</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="L45" t="n">
-        <v>1207.227134123859</v>
+        <v>803.2844507284746</v>
       </c>
       <c r="M45" t="n">
-        <v>1541.851827451147</v>
+        <v>803.2844507284746</v>
       </c>
       <c r="N45" t="n">
-        <v>1541.851827451147</v>
+        <v>803.2844507284746</v>
       </c>
       <c r="O45" t="n">
-        <v>2058.694762117472</v>
+        <v>1551.49908666842</v>
       </c>
       <c r="P45" t="n">
-        <v>2058.694762117472</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2030.97196149032</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.395089371907</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.056764772823</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.345237765856</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.112069502185</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.786087641078</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3841280049079</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>319.0219466569564</v>
+        <v>169.9960841325392</v>
       </c>
       <c r="C46" t="n">
-        <v>319.0219466569564</v>
+        <v>169.9960841325392</v>
       </c>
       <c r="D46" t="n">
-        <v>319.0219466569564</v>
+        <v>169.9960841325392</v>
       </c>
       <c r="E46" t="n">
-        <v>158.1111315252759</v>
+        <v>169.9960841325392</v>
       </c>
       <c r="F46" t="n">
-        <v>158.1111315252759</v>
+        <v>169.9960841325392</v>
       </c>
       <c r="G46" t="n">
-        <v>158.1111315252759</v>
+        <v>169.9960841325392</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>126.9155913163373</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1785.807757890521</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1707.6894088138</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1707.6894088138</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1468.820522913532</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1186.031054435695</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>912.1453093752168</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>633.0756448840912</v>
       </c>
       <c r="X46" t="n">
-        <v>731.4573516622361</v>
+        <v>394.7317827437745</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.7216530510008</v>
+        <v>169.9960841325392</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276486</v>
       </c>
       <c r="L3" t="n">
-        <v>557.0846165901667</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,10 +8221,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>231.0841246958424</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8231,13 +8233,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>64.9612675518901</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
@@ -8462,19 +8464,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8547,13 +8549,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>67.39425105392507</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>175.4852242574854</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>576.3232053728293</v>
@@ -8930,22 +8932,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9006,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>528.6762761514418</v>
       </c>
       <c r="N15" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>493.8215862770622</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>91.92897171537967</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>388.1423516779259</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9410,7 +9412,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9480,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>424.7983178153489</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>248.7843608135733</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>491.1608819079409</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10206,10 +10208,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10358,7 +10360,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
@@ -10425,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>233.3761574284127</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
@@ -10440,16 +10442,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,10 +10670,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>100.3051989065464</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10680,7 +10682,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>243.9932777523689</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>244.5713724463587</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>552.9160747585987</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>33.61744420588946</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>25.48513835903773</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>395.5690244730516</v>
+        <v>9.956411601480113</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>4.325482542992752</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>608.2162153528838</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>32.70820599534549</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>47.33433381251143</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>316.4793052160172</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.39195650761673</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22604,7 +22606,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.22463990372333</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,13 +22792,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.362559071249905</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>398.3024202793413</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22942,10 +22944,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -22996,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.559539437450496</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>5.214916324195428</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23030,13 +23032,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>252.3313285359751</v>
+        <v>206.2422569198551</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>93.42449318090689</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>203.4640111556028</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23315,16 +23317,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>33.75345248890267</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>129.840962977198</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -23479,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121.8356015163166</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.5484705942793</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23707,7 +23709,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>239.8681662832841</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23786,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>46.81509210126066</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="21">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>97.47683749511924</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>203.4640111556024</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>244.8005278063704</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>241.1753398431084</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>54.06597461814519</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>25.66401796922139</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>129.680898419834</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>96.14494677818681</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24889,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557883893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25123,19 +25125,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>129.8409629771975</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>45.55681957367921</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>237.4059310037594</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>37.84312462897432</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>14.30144802244516</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.893130557884547</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>96.14494677818601</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.83362056170967</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.7786421167841</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>367.7379623385982</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>79.20416145074303</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.4454267352887</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>190.7221184292249</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523931.8480247578</v>
+        <v>523931.8480247576</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523931.8480247577</v>
+        <v>523931.8480247578</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523931.8480247576</v>
+        <v>523931.8480247578</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>523931.8480247576</v>
+        <v>797757.8978723307</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797757.8978723309</v>
+        <v>797757.897872331</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797757.897872331</v>
+        <v>797757.8978723307</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797757.8978723306</v>
+        <v>797757.897872331</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797757.8978723309</v>
+        <v>797757.897872331</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797757.897872331</v>
+        <v>797757.8978723306</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797757.8978723307</v>
+        <v>797757.8978723309</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523931.8480247576</v>
+        <v>845213.5528326295</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>190259.0141861052</v>
       </c>
       <c r="E2" t="n">
-        <v>190259.0141861052</v>
+        <v>190259.0141861051</v>
       </c>
       <c r="F2" t="n">
         <v>190259.0141861052</v>
       </c>
       <c r="G2" t="n">
-        <v>190259.0141861053</v>
+        <v>289648.6675350939</v>
       </c>
       <c r="H2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="I2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="J2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="K2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="L2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="L2" t="n">
-        <v>289648.6675350938</v>
-      </c>
       <c r="M2" t="n">
+        <v>289648.667535094</v>
+      </c>
+      <c r="N2" t="n">
         <v>289648.6675350939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289648.6675350938</v>
       </c>
       <c r="O2" t="n">
         <v>289648.6675350939</v>
       </c>
       <c r="P2" t="n">
-        <v>190259.0141861052</v>
+        <v>309297.858464</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>83443.92413134825</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48718.21749193841</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="C4" t="n">
         <v>48718.21749193841</v>
@@ -26430,10 +26432,10 @@
         <v>48718.21749193841</v>
       </c>
       <c r="G4" t="n">
-        <v>48718.21749193841</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="I4" t="n">
         <v>74374.35696474131</v>
@@ -26442,22 +26444,22 @@
         <v>74374.35696474131</v>
       </c>
       <c r="K4" t="n">
+        <v>74374.35696474131</v>
+      </c>
+      <c r="L4" t="n">
         <v>74374.35696474132</v>
       </c>
-      <c r="L4" t="n">
-        <v>74374.35696474131</v>
-      </c>
       <c r="M4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="N4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="O4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="P4" t="n">
-        <v>48718.21749193841</v>
+        <v>72762.43982067984</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>79278.01907908043</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98783.7782774448</v>
+        <v>-98783.77827744484</v>
       </c>
       <c r="C6" t="n">
         <v>76171.73161566921</v>
@@ -26528,40 +26530,40 @@
         <v>76171.73161566927</v>
       </c>
       <c r="E6" t="n">
-        <v>109799.3316156692</v>
+        <v>109799.3316156691</v>
       </c>
       <c r="F6" t="n">
         <v>109799.3316156693</v>
       </c>
       <c r="G6" t="n">
-        <v>109799.3316156693</v>
+        <v>-31959.84200883162</v>
       </c>
       <c r="H6" t="n">
-        <v>-29208.31019417015</v>
+        <v>144409.1003254791</v>
       </c>
       <c r="I6" t="n">
+        <v>144409.1003254791</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7814.299519584223</v>
+      </c>
+      <c r="K6" t="n">
         <v>144409.1003254792</v>
       </c>
-      <c r="J6" t="n">
-        <v>7814.29951958418</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>144409.1003254791</v>
       </c>
-      <c r="L6" t="n">
-        <v>144409.1003254792</v>
-      </c>
       <c r="M6" t="n">
+        <v>144409.1003254794</v>
+      </c>
+      <c r="N6" t="n">
         <v>144409.1003254793</v>
       </c>
-      <c r="N6" t="n">
-        <v>144409.1003254792</v>
-      </c>
       <c r="O6" t="n">
-        <v>144409.1003254793</v>
+        <v>-10445.64306322954</v>
       </c>
       <c r="P6" t="n">
-        <v>109799.3316156693</v>
+        <v>73813.47543289146</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87.35389382924278</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26804,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1272.593818973733</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87.35389382924278</v>
       </c>
     </row>
     <row r="4">
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>107.0475978409477</v>
       </c>
     </row>
   </sheetData>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.3511714324793677</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.596434432879325</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>13.53853665066084</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>29.80523636739576</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>44.6703231042474</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>55.41748583098786</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>61.66263079334281</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>62.66039662587482</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>59.16843569415811</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>50.49889095482371</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>37.92256402915634</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>22.0592724954821</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.002319017623599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.537252945678433</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.02809371459834941</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.1878932810666732</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.814653530301817</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.469132703392037</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>17.75179459411056</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>30.34064442557766</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>40.79674069827042</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>47.60787213693731</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>48.86791085075724</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>44.70459130712201</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>35.87937575035446</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>23.98441250949323</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>11.66586529289397</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.49003528647965</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.7573417776327744</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01236140007017587</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1575234151019132</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.400526363360647</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.737158701428445</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.13690544770526</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>18.30135677274955</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>23.41943573251535</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>24.69251133274808</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>24.10537860373188</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>22.26521870913225</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>19.0517410410532</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.19043796821566</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.082825555400568</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.745203515912432</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.6730545917990834</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.008592186278286184</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9700927793176</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,10 +34941,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>135.5987266329975</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34951,13 +34953,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35184,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>522.0635703700256</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>471.1119924130244</v>
       </c>
       <c r="N15" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>400.9092955204429</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.55973291537967</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.9489582841759</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>194.5247258107695</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>435.3350991233255</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O32" t="n">
         <v>650.1321781990958</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,10 +37390,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>44.19067509569734</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>187.8787539415198</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>187.87875394152</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>286.5582378499759</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>588.2657787699438</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>775.2067785706222</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>845.8228237143064</v>
       </c>
       <c r="N44" t="n">
-        <v>460.0037840019794</v>
+        <v>823.4493023214485</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>709.300613893254</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>362.3276213981381</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>63.0255812728203</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>708.5625709197737</v>
       </c>
       <c r="M45" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>755.7723595352981</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>589.8359561004345</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>25.36170282670579</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>174.4148191184445</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>285.941759247728</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>316.8784269292059</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>307.7809163757018</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>284.4476533823384</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>226.8047109901566</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>79.38036706166095</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>609946.7114114127</v>
+        <v>605781.9744402518</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6784319.069857045</v>
+        <v>6750972.622617707</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5095204.268816689</v>
+        <v>5193450.223461223</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7984191.178853408</v>
+        <v>7956786.720574846</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>88.16169605007896</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>3.497613144310828</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -822,13 +822,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>149.0450973152922</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.338580986754753</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>289.8342156059925</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>224.6175354663322</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220189</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>101.5571554787041</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>38.20303820043806</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>85.31169352197783</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>32.49641236331061</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>248.3434784918823</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>392.4208820523424</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>77.72590661309958</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1618,16 +1618,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>303.5024155751839</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2004,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.4866148791031</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>330.7262294157694</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>32.496412363311</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>35.10362800310591</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>302.1350072502081</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>354.2586798869617</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.21879981048506</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>123.8394724344234</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3274,16 +3274,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>359.0841816924169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>33.74095660611388</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3559,10 +3559,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>208.933067249405</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0002589579186</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>308.4960544879101</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>294.1309698368488</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1210561135349326</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.2898298336167</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>304.2029779656798</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>71.94970840543674</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.9259454362166</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.4471662669313</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4617931084866</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4070,13 +4070,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.732318277738</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>68.2250873043393</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>14.07197276257019</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>103.4200745003546</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>156.9911033972291</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3649413530933</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>67.50669282849422</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.33716558595378</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.4801970412658</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9615737930588</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.096428763703</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C2" t="n">
-        <v>1277.096428763703</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D2" t="n">
-        <v>1277.096428763703</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="E2" t="n">
-        <v>862.7562132805995</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="F2" t="n">
-        <v>441.725801234287</v>
+        <v>45.29802819961299</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>45.29802819961299</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4372,10 +4372,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4421,10 +4421,10 @@
         <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
+        <v>675.1644281008383</v>
+      </c>
+      <c r="O3" t="n">
         <v>1192.007362767164</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>806.9731653642398</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F4" t="n">
         <v>474.9689777942758</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>994.6728717582841</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>994.6728717582841</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.096428763703</v>
+        <v>866.2298917994352</v>
       </c>
       <c r="C5" t="n">
-        <v>866.9718380769729</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D5" t="n">
-        <v>462.5079081700334</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>48.16769268693008</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>48.16769268693008</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,19 +4567,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1660.211372328756</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1276.451071463925</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1276.451071463925</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>1276.451071463925</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4758,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236465</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>553.0763550687942</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C8" t="n">
-        <v>553.0763550687942</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D8" t="n">
-        <v>553.0763550687942</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E8" t="n">
-        <v>553.0763550687942</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
-        <v>553.0763550687942</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>144.3480709616264</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,10 +4804,10 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
         <v>537.7254774811266</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207041</v>
+        <v>911.5090158378343</v>
       </c>
       <c r="Y8" t="n">
-        <v>553.0763550687942</v>
+        <v>872.9200883626444</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893876</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2048.100145893876</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.3725408241454</v>
+        <v>963.8485448562819</v>
       </c>
       <c r="C10" t="n">
-        <v>191.3725408241454</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D10" t="n">
-        <v>191.3725408241454</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3725408241454</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X10" t="n">
-        <v>191.3725408241454</v>
+        <v>1050.02197265626</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.3725408241454</v>
+        <v>1050.02197265626</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815613</v>
+        <v>713.6474961525632</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.908511128883</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D11" t="n">
-        <v>1267.908511128883</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5047,13 +5047,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M11" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>690.384199457534</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P12" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1485.891263925851</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.891263925851</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.891263925851</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W13" t="n">
-        <v>1485.891263925851</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.891263925851</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.988587952916</v>
+        <v>952.5816544823621</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O14" t="n">
-        <v>1767.09327468481</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P14" t="n">
         <v>1767.09327468481</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>952.5816544823621</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5466,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1085.931338311245</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.6584502828955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>799.565077844612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>640.070433167522</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.093855288175</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1383.093855288175</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1158.35815667694</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5791,13 +5791,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>3314.038978003258</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>1597.308950304478</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>242.8511528851661</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>242.8511528851661</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6171,25 +6171,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W25" t="n">
-        <v>519.2872662249838</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X25" t="n">
-        <v>280.9434040846672</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y25" t="n">
         <v>280.9434040846672</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2128.160977929772</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C26" t="n">
-        <v>1718.036387243042</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.572457336103</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3339.962228477219</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X26" t="n">
-        <v>2939.318830646172</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y26" t="n">
-        <v>2538.382157594262</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y28" t="n">
-        <v>3920.035659288462</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2139.066799289355</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6466,7 +6466,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6496,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1914.095216421104</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1688.585879914052</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1274.245664430949</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>853.2152523846366</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6940,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6982,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>592.7987223006619</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3612.981460220206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3441.888087781923</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>4542.830391856929</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>4263.760727365803</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>4025.416865225486</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>3800.681166614251</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7207,19 +7207,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4093.653822999973</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3743.816268336454</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W38" t="n">
-        <v>3360.055967471622</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>2959.412569640574</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>735.0499203580262</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.429368843485</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>837.543623783007</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>837.543623783007</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>837.543623783007</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2452.075282119331</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2041.950691432601</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1637.486761525662</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1223.146546042558</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>802.1161339962459</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>4047.636833531609</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3663.876532666778</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>3263.23313483573</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.29646178382</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1392.027034650488</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.027034650488</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1953.732927139018</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3458.327928931379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U43" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V43" t="n">
-        <v>4388.299139470661</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>4109.229474979536</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>3870.885612839219</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>3646.149914227984</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.092427585159</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2129.96783689843</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1725.50390699149</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1311.163691508386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>890.1332794620738</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>481.7597139735716</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>174.4839786547031</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>101.8075055178983</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>385.5001609893749</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>967.8832819716199</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1735.337992756537</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2572.702588233699</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3387.917397531934</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>4090.125005286255</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>4669.275605250682</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>5027.979950434838</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>5090.37527589493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4963.177351211883</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4742.523647911953</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4485.491533660957</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>4135.653978997438</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3751.893678132607</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3351.250280301559</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2950.313607249649</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>772.0810953693212</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>638.086024118267</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>521.1888663376594</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>400.6960503299874</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>291.736170512492</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9358490198274</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>116.0216194194847</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>101.8075055178986</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>101.8075055178986</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8075055178986</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>803.2844507284746</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>803.2844507284746</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>803.2844507284746</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1551.49908666842</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2135.43668320785</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2135.43668320785</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2135.43668320785</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2030.97196149032</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1872.395089371907</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1675.056764772823</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1461.345237765856</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1248.112069502185</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1071.786087641078</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>912.3841280049079</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>101.8075055178986</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>101.8075055178986</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9155913163373</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>299.5862622435974</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>582.6686038988482</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>896.3782465587622</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1201.081353770707</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1482.684530619222</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1707.221194499477</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1785.807757890521</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1707.6894088138</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1707.6894088138</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1468.820522913532</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1186.031054435695</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>912.1453093752168</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>633.0756448840912</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>394.7317827437745</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.9960841325392</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>596.4554908421626</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
@@ -7993,7 +7993,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>596.4554908421626</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
@@ -8230,7 +8230,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8297,7 +8297,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>203.4176284083942</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
@@ -8312,13 +8312,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>64.9612675518901</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595825</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.39425105392507</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8704,7 +8704,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>265.3595799407153</v>
       </c>
       <c r="M12" t="n">
-        <v>564.2543476875378</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
         <v>576.3232053728293</v>
@@ -8792,7 +8792,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>269.754811036119</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M15" t="n">
-        <v>528.6762761514418</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9184,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>388.1423516779259</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9263,7 +9263,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>248.7843608135733</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,16 +10205,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
@@ -10433,10 +10433,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>233.3761574284127</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,7 +10445,7 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>100.3051989065464</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>243.9932777523689</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
@@ -11150,16 +11150,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>244.5713724463587</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>33.61744420588946</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>25.48513835903773</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>9.956411601480113</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>4.325482542992752</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>608.2162153528838</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.70820599534549</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>47.33433381251143</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>316.4793052160172</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>304.3017992542484</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22612,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22770,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>86.91532620362128</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>398.3024202793413</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22843,16 +22843,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>56.50496351089157</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22998,16 +22998,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>55.35263051300484</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195428</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23023,7 +23023,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23032,13 +23032,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>206.2422569198551</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>358.7242681209527</v>
       </c>
     </row>
     <row r="9">
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>100.5110158081261</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>203.4640111556028</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>157.6798662879803</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>17.77593127592979</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>193.4209809967737</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>93.42489074620687</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>46.81509210126066</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>49.19646844041375</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24144,7 +24144,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>203.4640111556024</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>241.1753398431084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>102.505994015888</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>25.66401796922139</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>129.680898419834</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>222.4997066824607</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>45.55681957367921</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25329,7 +25329,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>237.4059310037594</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>14.30144802244516</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>96.14494677818601</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.7786421167841</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4203637486101</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>79.20416145074303</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4454267352887</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>181.7826469229764</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523931.8480247576</v>
+        <v>523931.8480247577</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523931.8480247576</v>
+        <v>523931.8480247577</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523931.8480247578</v>
+        <v>523931.8480247576</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523931.8480247578</v>
+        <v>523931.8480247576</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797757.8978723307</v>
+        <v>797757.897872331</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797757.8978723307</v>
+        <v>797757.8978723309</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797757.897872331</v>
+        <v>797757.8978723309</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797757.8978723306</v>
+        <v>797757.8978723309</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797757.8978723309</v>
+        <v>797757.897872331</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845213.5528326295</v>
+        <v>797757.897872331</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>190259.0141861052</v>
       </c>
       <c r="C2" t="n">
-        <v>190259.0141861052</v>
+        <v>190259.0141861051</v>
       </c>
       <c r="D2" t="n">
         <v>190259.0141861052</v>
       </c>
       <c r="E2" t="n">
+        <v>190259.0141861053</v>
+      </c>
+      <c r="F2" t="n">
         <v>190259.0141861051</v>
       </c>
-      <c r="F2" t="n">
-        <v>190259.0141861052</v>
-      </c>
       <c r="G2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="H2" t="n">
         <v>289648.6675350937</v>
       </c>
       <c r="I2" t="n">
+        <v>289648.6675350939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>289648.6675350939</v>
+      </c>
+      <c r="K2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="O2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="L2" t="n">
-        <v>289648.6675350937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289648.667535094</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289648.6675350939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289648.6675350939</v>
-      </c>
       <c r="P2" t="n">
-        <v>309297.858464</v>
+        <v>289648.6675350938</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
-        <v>83443.92413134825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="C4" t="n">
         <v>48718.21749193841</v>
@@ -26432,10 +26432,10 @@
         <v>48718.21749193841</v>
       </c>
       <c r="G4" t="n">
+        <v>74374.35696474132</v>
+      </c>
+      <c r="H4" t="n">
         <v>74374.35696474131</v>
-      </c>
-      <c r="H4" t="n">
-        <v>74374.35696474132</v>
       </c>
       <c r="I4" t="n">
         <v>74374.35696474131</v>
@@ -26447,19 +26447,19 @@
         <v>74374.35696474131</v>
       </c>
       <c r="L4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="M4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="N4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="O4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>72762.43982067984</v>
+        <v>74374.35696474131</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>79278.01907908043</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98783.77827744484</v>
+        <v>-99461.30713683888</v>
       </c>
       <c r="C6" t="n">
-        <v>76171.73161566921</v>
+        <v>75494.20275627513</v>
       </c>
       <c r="D6" t="n">
-        <v>76171.73161566927</v>
+        <v>75494.20275627522</v>
       </c>
       <c r="E6" t="n">
-        <v>109799.3316156691</v>
+        <v>109121.8027562753</v>
       </c>
       <c r="F6" t="n">
-        <v>109799.3316156693</v>
+        <v>109121.8027562751</v>
       </c>
       <c r="G6" t="n">
-        <v>-31959.84200883162</v>
+        <v>-32140.4226014809</v>
       </c>
       <c r="H6" t="n">
-        <v>144409.1003254791</v>
+        <v>144228.51973283</v>
       </c>
       <c r="I6" t="n">
-        <v>144409.1003254791</v>
+        <v>144228.5197328302</v>
       </c>
       <c r="J6" t="n">
-        <v>7814.299519584223</v>
+        <v>7633.718926935196</v>
       </c>
       <c r="K6" t="n">
-        <v>144409.1003254792</v>
+        <v>144228.51973283</v>
       </c>
       <c r="L6" t="n">
-        <v>144409.1003254791</v>
+        <v>144228.5197328301</v>
       </c>
       <c r="M6" t="n">
-        <v>144409.1003254794</v>
+        <v>144228.51973283</v>
       </c>
       <c r="N6" t="n">
-        <v>144409.1003254793</v>
+        <v>144228.51973283</v>
       </c>
       <c r="O6" t="n">
-        <v>-10445.64306322954</v>
+        <v>-10626.22365587874</v>
       </c>
       <c r="P6" t="n">
-        <v>73813.47543289146</v>
+        <v>144228.5197328301</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>87.35389382924278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>1272.593818973733</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>87.35389382924278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
-        <v>107.0475978409477</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3511714324793677</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.596434432879325</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>13.53853665066084</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.80523636739576</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.6703231042474</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>55.41748583098786</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>61.66263079334281</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>62.66039662587482</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>59.16843569415811</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>50.49889095482371</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.92256402915634</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.0592724954821</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.002319017623599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.537252945678433</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02809371459834941</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1878932810666732</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.814653530301817</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.469132703392037</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.75179459411056</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>30.34064442557766</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>40.79674069827042</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>47.60787213693731</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>48.86791085075724</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>44.70459130712201</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>35.87937575035446</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.98441250949323</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.66586529289397</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.49003528647965</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7573417776327744</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01236140007017587</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1575234151019132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.400526363360647</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.737158701428445</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.13690544770526</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>18.30135677274955</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>23.41943573251535</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>24.69251133274808</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>24.10537860373188</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>22.26521870913225</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>19.0517410410532</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.19043796821566</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.082825555400568</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.745203515912432</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6730545917990834</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008592186278286184</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>500.9700927793178</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
@@ -34713,7 +34713,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>500.9700927793178</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
@@ -34950,7 +34950,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
@@ -35032,13 +35032,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>10.70163254908636</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35424,7 +35424,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="M12" t="n">
-        <v>506.6900639491204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
         <v>522.0635703700256</v>
@@ -35512,7 +35512,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M15" t="n">
-        <v>471.1119924130244</v>
-      </c>
-      <c r="N15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35904,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>334.9489582841759</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>194.5247258107695</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
         <v>650.1321781990958</v>
@@ -37153,10 +37153,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>177.2616336175636</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>44.19067509569734</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>187.8787539415198</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>187.87875394152</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>286.5582378499759</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>588.2657787699438</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>775.2067785706222</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>845.8228237143064</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>823.4493023214485</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>709.300613893254</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>585.0006060246737</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.3276213981381</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>63.0255812728203</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>708.5625709197737</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>755.7723595352981</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>589.8359561004345</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.36170282670579</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>174.4148191184445</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>285.941759247728</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>316.8784269292059</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>307.7809163757018</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>284.4476533823384</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>226.8047109901566</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.38036706166095</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
